--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS006_G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS006_G4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="19440" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -200,12 +200,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,7 +214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4BD97"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,17 +273,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,22 +288,24 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -593,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -611,12 +609,12 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -625,10 +623,10 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -640,9 +638,9 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
@@ -657,13 +655,14 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -673,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -698,40 +697,40 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -742,7 +741,7 @@
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -789,7 +788,7 @@
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -836,7 +835,7 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -883,7 +882,7 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -930,7 +929,7 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -977,7 +976,7 @@
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1024,7 +1023,7 @@
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1071,7 +1070,7 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1118,7 +1117,7 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1165,7 +1164,7 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1209,6 +1208,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1247,43 +1247,43 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2">
@@ -1309,7 +1309,7 @@
       <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="5">
         <v>41307</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1318,16 +1318,16 @@
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="5">
         <v>41309</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="6">
         <v>0.66666666666666663</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="7">
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -1338,13 +1338,13 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2">
@@ -1359,7 +1359,7 @@
       <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="5">
         <v>41307</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1368,16 +1368,16 @@
       <c r="J3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>41310</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="6">
         <v>0.72916666666666663</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="7">
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -1388,13 +1388,13 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2">
@@ -1409,7 +1409,7 @@
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>41307</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1418,16 +1418,16 @@
       <c r="J4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="5">
         <v>41311</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="6">
         <v>0.75</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="7">
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -1438,13 +1438,13 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="2">
@@ -1468,16 +1468,16 @@
       <c r="J5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="5">
         <v>41312</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="6">
         <v>0.79166666666666696</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="7">
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -1488,13 +1488,13 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="2">
@@ -1509,7 +1509,7 @@
       <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="5">
         <v>41307</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1518,16 +1518,16 @@
       <c r="J6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="5">
         <v>41313</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="6">
         <v>0.85416666666666663</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="7">
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -1538,13 +1538,13 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="2">
@@ -1559,7 +1559,7 @@
       <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="5">
         <v>41307</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1568,16 +1568,16 @@
       <c r="J7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="5">
         <v>41314</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="6">
         <v>0.875</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="7">
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
@@ -1588,13 +1588,13 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="2">
@@ -1609,7 +1609,7 @@
       <c r="G8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="5">
         <v>41307</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1621,13 +1621,13 @@
       <c r="K8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="6">
         <v>0.91666666666666696</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="7">
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -1638,13 +1638,13 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="2">
@@ -1659,7 +1659,7 @@
       <c r="G9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="5">
         <v>41307</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1668,7 +1668,7 @@
       <c r="J9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="5">
         <v>41315</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -1677,7 +1677,7 @@
       <c r="M9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="7">
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
@@ -1688,13 +1688,13 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="2">
@@ -1709,7 +1709,7 @@
       <c r="G10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="5">
         <v>41307</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1718,16 +1718,16 @@
       <c r="J10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="5">
         <v>41316</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="6">
         <v>0.5625</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="7">
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
@@ -1744,7 +1744,7 @@
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="2">
@@ -1759,7 +1759,7 @@
       <c r="G11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="5">
         <v>41307</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -1768,10 +1768,10 @@
       <c r="J11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="5">
         <v>41317</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="6">
         <v>0.58333333333333304</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -1788,6 +1788,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS006_G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS006_G4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="62">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -63,9 +63,6 @@
     <t>V2</t>
   </si>
   <si>
-    <t>TC1</t>
-  </si>
-  <si>
     <t>Mensaje de confirmación</t>
   </si>
   <si>
@@ -105,12 +102,6 @@
     <t>Estimacion Costo</t>
   </si>
   <si>
-    <t>SC1 - Registro de incidencia satisfactorio - No se ingresa Prioridad</t>
-  </si>
-  <si>
-    <t>SC1 - Registro de incidencia satisfactorio - No se ingresa Impacto</t>
-  </si>
-  <si>
     <t>SC1 - Registro de incidencia satisfactorio - No se ingresa Fecha Apertura</t>
   </si>
   <si>
@@ -184,6 +175,33 @@
   </si>
   <si>
     <t>Bajo</t>
+  </si>
+  <si>
+    <t>TC1_SI_CUS006</t>
+  </si>
+  <si>
+    <t>Actualizar el documento de registro de documentos</t>
+  </si>
+  <si>
+    <t>Elaborar un documento de control de registro</t>
+  </si>
+  <si>
+    <t>Prevenir</t>
+  </si>
+  <si>
+    <t>Creación del procedimiento</t>
+  </si>
+  <si>
+    <t>Critico</t>
+  </si>
+  <si>
+    <t>SC1 - Registro de incidencia satisfactorio - No se selecciona Prioridad</t>
+  </si>
+  <si>
+    <t>SC1 - Registro de incidencia satisfactorio - No se selecciona Impacto</t>
+  </si>
+  <si>
+    <t>V10</t>
   </si>
 </sst>
 </file>
@@ -304,8 +322,688 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3313</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3313</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4156213" y="1381125"/>
+          <a:ext cx="0" cy="2695575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1034498</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>870088</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="2 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3139523" y="1143000"/>
+          <a:ext cx="950015" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Inicio Caso de uso</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>196988</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213554</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="3 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4349888" y="3692525"/>
+          <a:ext cx="950016" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Fin Caso de uso</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222388</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238954</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="4 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4375288" y="1695450"/>
+          <a:ext cx="950016" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" b="1"/>
+            <a:t>SI_CUS006</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358223</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>823025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="5 Flecha curvada hacia la derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="3577673" y="2133599"/>
+          <a:ext cx="464802" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56828</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>534650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="6 Flecha curvada hacia la izquierda"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="4209728" y="2124074"/>
+          <a:ext cx="477822" cy="981076"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>606562</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>448503</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="7 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4759462" y="2530475"/>
+          <a:ext cx="1537391" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> alternativo 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1990725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304247</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="8 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="2292350"/>
+          <a:ext cx="1532972" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> alternativo 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>920888</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327164</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="9 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140338" y="3130551"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>551898</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>889139</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="11 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771348" y="2730501"/>
+          <a:ext cx="337241" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561423</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>898664</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="12 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3780873" y="1939926"/>
+          <a:ext cx="337241" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -591,9 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -618,7 +1314,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -630,7 +1326,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -644,7 +1340,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -665,6 +1361,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -672,9 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -698,40 +1393,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
@@ -739,10 +1434,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -786,10 +1481,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -833,10 +1528,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -880,10 +1575,10 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -927,10 +1622,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -974,10 +1669,10 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -1021,10 +1716,10 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1068,10 +1763,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -1115,10 +1810,10 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1162,10 +1857,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1218,9 +1913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -1229,7 +1922,7 @@
     <col min="3" max="3" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1248,40 +1941,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
@@ -1292,31 +1985,31 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>348</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2" s="5">
         <v>41307</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K2" s="5">
         <v>41309</v>
@@ -1325,7 +2018,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N2" s="7">
         <v>0</v>
@@ -1342,31 +2035,31 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2">
         <v>349</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H3" s="5">
         <v>41307</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K3" s="5">
         <v>41310</v>
@@ -1375,10 +2068,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>13</v>
@@ -1389,22 +2082,22 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2">
         <v>350</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>5</v>
@@ -1413,10 +2106,10 @@
         <v>41307</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K4" s="5">
         <v>41311</v>
@@ -1425,10 +2118,10 @@
         <v>0.75</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>13</v>
@@ -1439,34 +2132,34 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>351</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K5" s="5">
         <v>41312</v>
@@ -1475,10 +2168,10 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>13</v>
@@ -1489,25 +2182,25 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>352</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6" s="5">
         <v>41307</v>
@@ -1516,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K6" s="5">
         <v>41313</v>
@@ -1525,10 +2218,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>13</v>
@@ -1539,31 +2232,31 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>353</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H7" s="5">
         <v>41307</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -1575,10 +2268,10 @@
         <v>0.875</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>13</v>
@@ -1589,34 +2282,34 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2">
         <v>354</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H8" s="5">
         <v>41307</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>5</v>
@@ -1625,10 +2318,10 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>13</v>
@@ -1639,34 +2332,34 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2">
         <v>355</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H9" s="5">
         <v>41307</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K9" s="5">
         <v>41315</v>
@@ -1675,10 +2368,10 @@
         <v>5</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>13</v>
@@ -1689,34 +2382,34 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>356</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H10" s="5">
         <v>41307</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K10" s="5">
         <v>41316</v>
@@ -1728,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>13</v>
@@ -1739,34 +2432,34 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>357</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H11" s="5">
         <v>41307</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K11" s="5">
         <v>41317</v>
@@ -1775,7 +2468,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>5</v>

--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS006_G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS006_G4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
@@ -504,62 +504,58 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>222388</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>238954</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="4 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="1028" name="4 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4375288" y="1695450"/>
-          <a:ext cx="950016" cy="254000"/>
+          <a:off x="4371975" y="1609725"/>
+          <a:ext cx="1143000" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="BCBCBC"/>
           </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-PE" sz="1100" b="1"/>
-            <a:t>SI_CUS006</a:t>
+            <a:rPr lang="es-ES" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>SI_CUS006_CREAR_INCIDENCIA</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -613,12 +609,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -671,12 +662,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1003,7 +989,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1289,7 +1275,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>

--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS006_G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS006_G4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
@@ -207,8 +207,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +319,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -509,10 +514,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -524,7 +529,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4371975" y="1609725"/>
-          <a:ext cx="1143000" cy="476250"/>
+          <a:ext cx="2124076" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -989,7 +994,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1063,6 +1068,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1097,6 +1103,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1272,21 +1279,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1307,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1312,7 +1319,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1326,7 +1333,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1354,12 +1361,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
@@ -1373,7 +1380,7 @@
     <col min="15" max="15" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1420,7 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -1467,7 +1474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
@@ -1514,7 +1521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>53</v>
       </c>
@@ -1561,7 +1568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -1608,7 +1615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
@@ -1655,7 +1662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -1702,7 +1709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -1749,7 +1756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -1843,7 +1850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -1898,12 +1905,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1918,7 +1925,7 @@
     <col min="16" max="16" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1968,7 +1975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2018,7 +2025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2068,7 +2075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -2118,7 +2125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -2168,7 +2175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -2218,7 +2225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -2268,7 +2275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -2318,7 +2325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -2368,7 +2375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -2418,7 +2425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
